--- a/Documentation/PurchasedBOM_V1.xlsx
+++ b/Documentation/PurchasedBOM_V1.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JakeKunzler\Documents\GitHub\BrendonsClock\AltiumFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JakeKunzler\Documents\GitHub\BYU7SegBoard\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
   </bookViews>
   <sheets>
-    <sheet name="Cart" sheetId="1" r:id="rId1"/>
+    <sheet name="Total Cost" sheetId="2" r:id="rId1"/>
+    <sheet name="Mouser Cart" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
   <si>
     <t>MFR-25FBF52-9K53</t>
   </si>
@@ -319,16 +320,65 @@
   </si>
   <si>
     <t>603-MFR-25FRF52100R</t>
+  </si>
+  <si>
+    <t>Seven Segment Board</t>
+  </si>
+  <si>
+    <t>Fabrication</t>
+  </si>
+  <si>
+    <t>Price Break</t>
+  </si>
+  <si>
+    <t>Board Parts</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>OSH PARK</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cost Per</t>
+  </si>
+  <si>
+    <t>Shop Supplies</t>
+  </si>
+  <si>
+    <t>ECEN Shop</t>
+  </si>
+  <si>
+    <t>Purchased For August 8th Activity</t>
+  </si>
+  <si>
+    <t>*Given Free Board from QuickTurn</t>
+  </si>
+  <si>
+    <t>Arduino Nano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,8 +402,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,8 +438,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -375,12 +458,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -388,8 +525,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -742,9 +903,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="11"/>
+    <col min="8" max="9" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13">
+        <v>50</v>
+      </c>
+      <c r="I3" s="13">
+        <v>100</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="12">
+        <v>97.95</v>
+      </c>
+      <c r="E4" s="12">
+        <v>97.95</v>
+      </c>
+      <c r="F4" s="12">
+        <v>182.5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>182.5</v>
+      </c>
+      <c r="H4" s="12">
+        <v>912.5</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1825</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12">
+        <v>97.95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="12">
+        <f>42.98+7.99</f>
+        <v>50.97</v>
+      </c>
+      <c r="E5" s="12">
+        <f>3*42.98+7.99</f>
+        <v>136.93</v>
+      </c>
+      <c r="F5" s="12">
+        <f>6*42.98+7.99</f>
+        <v>265.87</v>
+      </c>
+      <c r="G5" s="12">
+        <f>10*42.98+7.99</f>
+        <v>437.78999999999996</v>
+      </c>
+      <c r="H5" s="12">
+        <f>(50*42.98+7.99)*0.9</f>
+        <v>1941.2909999999999</v>
+      </c>
+      <c r="I5" s="12">
+        <f>(100*42.98+7.99)*0.8</f>
+        <v>3444.7919999999999</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12">
+        <f>4*42.98+7.99</f>
+        <v>179.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E6" s="12">
+        <v>13.86</v>
+      </c>
+      <c r="F6" s="12">
+        <f>13.86*2</f>
+        <v>27.72</v>
+      </c>
+      <c r="G6" s="12">
+        <f>18.99*2</f>
+        <v>37.979999999999997</v>
+      </c>
+      <c r="H6" s="12">
+        <f>18.99*10</f>
+        <v>189.89999999999998</v>
+      </c>
+      <c r="I6" s="12">
+        <f>18.99*20</f>
+        <v>379.79999999999995</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12">
+        <f>15.99*2</f>
+        <v>31.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12">
+        <v>6</v>
+      </c>
+      <c r="I7" s="12">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="17">
+        <f>SUM(D3:D8)</f>
+        <v>160.21</v>
+      </c>
+      <c r="E9" s="17">
+        <f>SUM(E3:E8)</f>
+        <v>253.74</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" ref="F9:I9" si="0">SUM(F3:F8)</f>
+        <v>484.09000000000003</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>672.27</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="0"/>
+        <v>3099.6910000000003</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="0"/>
+        <v>5759.5919999999996</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="17">
+        <f>SUM(K3:K8)</f>
+        <v>315.84000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12">
+        <f>D9/D3</f>
+        <v>160.21</v>
+      </c>
+      <c r="E10" s="12">
+        <f>E9/E3</f>
+        <v>84.58</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" ref="F10:I10" si="1">F9/F3</f>
+        <v>80.681666666666672</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>67.227000000000004</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
+        <v>61.993820000000007</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
+        <v>57.59592</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="12">
+        <f>K9/K3</f>
+        <v>78.960000000000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:K2830"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
